--- a/homeworks/homework_10/yevhenii_vinichenko/2-8_benchmarks-results-S4.xlsx
+++ b/homeworks/homework_10/yevhenii_vinichenko/2-8_benchmarks-results-S4.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr date1904="1" updateLinks="never" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\TIMSS2019\Reports\International Reports\REPORTS WEB\download\achievement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yevhe\Documents\TWD\2021Z-DataVisualizationTechniques\homeworks\homework_10\yevhenii_vinichenko\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502E829E-A72A-4CA4-9FFD-1F11CE4AD782}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7935"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="G4 SCI" sheetId="13" r:id="rId1"/>
@@ -106,9 +107,6 @@
     <t>Bulgaria</t>
   </si>
   <si>
-    <t>Turkey (5)</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -124,9 +122,6 @@
     <t>Hungary</t>
   </si>
   <si>
-    <t>Norway (5)</t>
-  </si>
-  <si>
     <t>Poland</t>
   </si>
   <si>
@@ -212,9 +207,6 @@
   </si>
   <si>
     <t>Kuwait</t>
-  </si>
-  <si>
-    <t>South Africa (5)</t>
   </si>
   <si>
     <t>Morocco</t>
@@ -294,12 +286,21 @@
   <si>
     <t>Low Benchmark
 (400)</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>South Africa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="\(0.0\)"/>
@@ -953,25 +954,25 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="18" fillId="8" borderId="8" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="9" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="9" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="8" borderId="8" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -980,34 +981,34 @@
     </xf>
   </cellXfs>
   <cellStyles count="28">
-    <cellStyle name="Arrows_Comparison" xfId="1"/>
-    <cellStyle name="BenchMark_Header" xfId="2"/>
-    <cellStyle name="Countries" xfId="3"/>
-    <cellStyle name="Countries_List" xfId="4"/>
-    <cellStyle name="DataSheet" xfId="5"/>
-    <cellStyle name="DataSheet 2" xfId="20"/>
-    <cellStyle name="DataSheet 2 2" xfId="25"/>
-    <cellStyle name="DataSheet 3" xfId="22"/>
-    <cellStyle name="Description_Header" xfId="6"/>
-    <cellStyle name="Exhibit_Title" xfId="7"/>
-    <cellStyle name="Footnote_Bottom_Marker" xfId="8"/>
-    <cellStyle name="Footnote_Top_Marker" xfId="9"/>
-    <cellStyle name="Footnotes" xfId="10"/>
-    <cellStyle name="Footnotes 2" xfId="21"/>
-    <cellStyle name="Footnotes 2 2" xfId="26"/>
-    <cellStyle name="Footnotes 3" xfId="23"/>
-    <cellStyle name="Head_6.5_Cent_topborder" xfId="11"/>
-    <cellStyle name="Head_8_Cent" xfId="12"/>
+    <cellStyle name="Arrows_Comparison" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="BenchMark_Header" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Countries" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Countries_List" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="DataSheet" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="DataSheet 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="DataSheet 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="DataSheet 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Description_Header" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Exhibit_Title" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Footnote_Bottom_Marker" xfId="8" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Footnote_Top_Marker" xfId="9" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Footnotes" xfId="10" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Footnotes 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Footnotes 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Footnotes 3" xfId="23" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Head_6.5_Cent_topborder" xfId="11" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Head_8_Cent" xfId="12" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8"/>
-    <cellStyle name="Index_Header" xfId="13"/>
+    <cellStyle name="Index_Header" xfId="13" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="14"/>
-    <cellStyle name="Normal 2 2" xfId="24"/>
-    <cellStyle name="Numbers_Center" xfId="15"/>
-    <cellStyle name="Numbers_Right" xfId="16"/>
-    <cellStyle name="Numbers_S_Error" xfId="17"/>
-    <cellStyle name="RandS_Column" xfId="18"/>
-    <cellStyle name="Significance_Arrows" xfId="19"/>
+    <cellStyle name="Normal 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Normal 2 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Numbers_Center" xfId="15" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Numbers_Right" xfId="16" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Numbers_S_Error" xfId="17" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="RandS_Column" xfId="18" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Significance_Arrows" xfId="19" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -1200,7 +1201,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1267,20 +1274,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="Group 9"/>
+        <xdr:cNvPr id="10" name="Group 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="22412" y="22411"/>
-          <a:ext cx="12446393" cy="960166"/>
+          <a:ext cx="12905834" cy="945225"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="12501140" cy="960166"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="11" name="Picture 10"/>
+          <xdr:cNvPr id="11" name="Picture 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -1309,7 +1328,13 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="12" name="Picture 11"/>
+          <xdr:cNvPr id="12" name="Picture 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -1686,35 +1711,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:X92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.26953125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="0.85546875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="12.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="0.42578125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="12.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="0.42578125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="12.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="0.42578125" style="1" customWidth="1"/>
-    <col min="14" max="15" width="12.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="0.81640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="0.453125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="12.1796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="0.453125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="12.1796875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="0.453125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="12.1796875" style="1" customWidth="1"/>
     <col min="16" max="16" width="50" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" customWidth="1"/>
-    <col min="18" max="19" width="9.28515625" customWidth="1"/>
-    <col min="20" max="20" width="0.42578125" customWidth="1"/>
+    <col min="17" max="17" width="5.7265625" customWidth="1"/>
+    <col min="18" max="19" width="9.26953125" customWidth="1"/>
+    <col min="20" max="20" width="0.453125" customWidth="1"/>
     <col min="21" max="22" width="9" customWidth="1"/>
-    <col min="23" max="23" width="3.140625" customWidth="1"/>
-    <col min="24" max="24" width="2.5703125" customWidth="1"/>
-    <col min="25" max="16384" width="14.28515625" style="1"/>
+    <col min="23" max="23" width="3.1796875" customWidth="1"/>
+    <col min="24" max="24" width="2.54296875" customWidth="1"/>
+    <col min="25" max="16384" width="14.26953125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" customFormat="1" ht="22.5" customHeight="1"/>
@@ -1747,12 +1772,12 @@
       <c r="X2"/>
     </row>
     <row r="3" spans="1:24" s="13" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="70"/>
       <c r="P3"/>
       <c r="Q3"/>
@@ -1764,7 +1789,7 @@
       <c r="W3"/>
       <c r="X3"/>
     </row>
-    <row r="4" spans="1:24" s="13" customFormat="1" ht="18.75" thickBot="1">
+    <row r="4" spans="1:24" s="13" customFormat="1" ht="18" thickBot="1">
       <c r="A4" s="26"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -1784,50 +1809,50 @@
       <c r="X4"/>
     </row>
     <row r="5" spans="1:24" ht="27.75" customHeight="1">
-      <c r="A5" s="75"/>
-      <c r="B5" s="75"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
       <c r="C5" s="78" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="47"/>
-      <c r="E5" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
+      <c r="E5" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
     </row>
     <row r="6" spans="1:24" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A6" s="76"/>
-      <c r="B6" s="76"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="79"/>
       <c r="E6" s="74" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F6" s="74"/>
-      <c r="G6" s="72"/>
+      <c r="G6" s="71"/>
       <c r="H6" s="74" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I6" s="74"/>
       <c r="K6" s="74" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L6" s="74"/>
-      <c r="M6" s="72"/>
+      <c r="M6" s="71"/>
       <c r="N6" s="74" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O6" s="74"/>
     </row>
-    <row r="7" spans="1:24" ht="17.45" customHeight="1">
+    <row r="7" spans="1:24" ht="17.5" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="60" t="s">
         <v>7</v>
@@ -1863,7 +1888,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="17.45" customHeight="1">
+    <row r="8" spans="1:24" ht="17.5" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="61" t="s">
         <v>8</v>
@@ -1899,7 +1924,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="17.45" customHeight="1">
+    <row r="9" spans="1:24" ht="17.5" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="60" t="s">
         <v>9</v>
@@ -1935,7 +1960,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="17.45" customHeight="1">
+    <row r="10" spans="1:24" ht="17.5" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="61" t="s">
         <v>8</v>
@@ -1971,7 +1996,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="17.45" customHeight="1">
+    <row r="11" spans="1:24" ht="17.5" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="60" t="s">
         <v>8</v>
@@ -2007,7 +2032,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="17.45" customHeight="1">
+    <row r="12" spans="1:24" ht="17.5" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="61" t="s">
         <v>8</v>
@@ -2043,7 +2068,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="17.45" customHeight="1">
+    <row r="13" spans="1:24" ht="17.5" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="60" t="s">
         <v>10</v>
@@ -2079,7 +2104,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="17.45" customHeight="1">
+    <row r="14" spans="1:24" ht="17.5" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="61" t="s">
         <v>8</v>
@@ -2115,13 +2140,13 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="17.45" customHeight="1">
+    <row r="15" spans="1:24" ht="17.5" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="60" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="4">
@@ -2151,13 +2176,13 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="17.45" customHeight="1">
+    <row r="16" spans="1:24" ht="17.5" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="61" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="7">
@@ -2187,13 +2212,13 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="17.45" customHeight="1">
+    <row r="17" spans="1:15" ht="17.5" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="60" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="4">
@@ -2223,13 +2248,13 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="17.45" customHeight="1">
+    <row r="18" spans="1:15" ht="17.5" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="61" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="7">
@@ -2259,13 +2284,13 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="17.45" customHeight="1">
+    <row r="19" spans="1:15" ht="17.5" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="60" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="4">
@@ -2295,13 +2320,13 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="17.45" customHeight="1">
+    <row r="20" spans="1:15" ht="17.5" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" s="61" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="7">
@@ -2331,13 +2356,13 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="17.45" customHeight="1">
+    <row r="21" spans="1:15" ht="17.5" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="60" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="4">
@@ -2367,13 +2392,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="17.45" customHeight="1">
+    <row r="22" spans="1:15" ht="17.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="61" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="7">
@@ -2403,13 +2428,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="17.45" customHeight="1">
+    <row r="23" spans="1:15" ht="17.5" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="60" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="4">
@@ -2439,13 +2464,13 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="17.45" customHeight="1">
+    <row r="24" spans="1:15" ht="17.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="61" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="7">
@@ -2475,13 +2500,13 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="17.45" customHeight="1">
+    <row r="25" spans="1:15" ht="17.5" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="60" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="4">
@@ -2511,13 +2536,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="17.45" customHeight="1">
+    <row r="26" spans="1:15" ht="17.5" customHeight="1">
       <c r="A26" s="6"/>
       <c r="B26" s="61" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="7">
@@ -2547,13 +2572,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="17.45" customHeight="1">
+    <row r="27" spans="1:15" ht="17.5" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="60" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="4">
@@ -2583,13 +2608,13 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="17.45" customHeight="1">
+    <row r="28" spans="1:15" ht="17.5" customHeight="1">
       <c r="A28" s="6"/>
       <c r="B28" s="61" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="7">
@@ -2619,13 +2644,13 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="17.45" customHeight="1">
+    <row r="29" spans="1:15" ht="17.5" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="60" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="4">
@@ -2655,13 +2680,13 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="17.45" customHeight="1">
+    <row r="30" spans="1:15" ht="17.5" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" s="61" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="7">
@@ -2691,13 +2716,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="17.45" customHeight="1">
+    <row r="31" spans="1:15" ht="17.5" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="60" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="4">
@@ -2727,13 +2752,13 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="17.45" customHeight="1">
+    <row r="32" spans="1:15" ht="17.5" customHeight="1">
       <c r="A32" s="6"/>
       <c r="B32" s="61" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="7">
@@ -2763,13 +2788,13 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="17.45" customHeight="1">
+    <row r="33" spans="1:15" ht="17.5" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="60" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="4">
@@ -2799,13 +2824,13 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="17.45" customHeight="1">
+    <row r="34" spans="1:15" ht="17.5" customHeight="1">
       <c r="A34" s="6"/>
       <c r="B34" s="61" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="7">
@@ -2835,13 +2860,13 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="17.45" customHeight="1">
+    <row r="35" spans="1:15" ht="17.5" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="60" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="4">
@@ -2871,13 +2896,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="17.45" customHeight="1">
+    <row r="36" spans="1:15" ht="17.5" customHeight="1">
       <c r="A36" s="6"/>
       <c r="B36" s="61" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="7">
@@ -2907,13 +2932,13 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="17.45" customHeight="1">
+    <row r="37" spans="1:15" ht="17.5" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="60" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="4">
@@ -2943,13 +2968,13 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="17.45" customHeight="1">
+    <row r="38" spans="1:15" ht="17.5" customHeight="1">
       <c r="A38" s="6"/>
       <c r="B38" s="61" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="7">
@@ -2979,13 +3004,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="17.45" customHeight="1">
+    <row r="39" spans="1:15" ht="17.5" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="60" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="4">
@@ -3015,13 +3040,13 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="17.45" customHeight="1">
+    <row r="40" spans="1:15" ht="17.5" customHeight="1">
       <c r="A40" s="6"/>
       <c r="B40" s="61" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="7">
@@ -3051,13 +3076,13 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="17.45" customHeight="1">
+    <row r="41" spans="1:15" ht="17.5" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="60" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="4">
@@ -3087,13 +3112,13 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="17.45" customHeight="1">
+    <row r="42" spans="1:15" ht="17.5" customHeight="1">
       <c r="A42" s="6"/>
       <c r="B42" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="7">
@@ -3123,13 +3148,13 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="17.45" customHeight="1">
+    <row r="43" spans="1:15" ht="17.5" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" s="60" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="4">
@@ -3159,13 +3184,13 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="17.45" customHeight="1">
+    <row r="44" spans="1:15" ht="17.5" customHeight="1">
       <c r="A44" s="6"/>
       <c r="B44" s="61" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="7">
@@ -3195,13 +3220,13 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="17.45" customHeight="1">
+    <row r="45" spans="1:15" ht="17.5" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="60" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="4">
@@ -3231,13 +3256,13 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="17.45" customHeight="1">
+    <row r="46" spans="1:15" ht="17.5" customHeight="1">
       <c r="A46" s="6"/>
       <c r="B46" s="61" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="7">
@@ -3267,13 +3292,13 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="17.45" customHeight="1">
+    <row r="47" spans="1:15" ht="17.5" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="60" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="4">
@@ -3303,13 +3328,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="17.45" customHeight="1">
+    <row r="48" spans="1:15" ht="17.5" customHeight="1">
       <c r="A48" s="6"/>
       <c r="B48" s="61" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="7">
@@ -3339,13 +3364,13 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="17.45" customHeight="1">
+    <row r="49" spans="1:19" ht="17.5" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="60" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="4">
@@ -3378,13 +3403,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="17.45" customHeight="1">
+    <row r="50" spans="1:19" ht="17.5" customHeight="1">
       <c r="A50" s="6"/>
       <c r="B50" s="61" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="7">
@@ -3414,13 +3439,13 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="17.45" customHeight="1">
+    <row r="51" spans="1:19" ht="17.5" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="60" t="s">
         <v>14</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="4">
@@ -3450,13 +3475,13 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="17.45" customHeight="1">
+    <row r="52" spans="1:19" ht="17.5" customHeight="1">
       <c r="A52" s="6"/>
       <c r="B52" s="61" t="s">
         <v>15</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="7">
@@ -3486,13 +3511,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="17.45" customHeight="1">
+    <row r="53" spans="1:19" ht="17.5" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="60" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="4">
@@ -3522,13 +3547,13 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="17.45" customHeight="1">
+    <row r="54" spans="1:19" ht="17.5" customHeight="1">
       <c r="A54" s="6"/>
       <c r="B54" s="61" t="s">
         <v>16</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="7">
@@ -3558,13 +3583,13 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="17.45" customHeight="1">
+    <row r="55" spans="1:19" ht="17.5" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="60" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="4">
@@ -3600,7 +3625,7 @@
         <v>8</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="7">
@@ -3636,7 +3661,7 @@
         <v>8</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="4">
@@ -3672,7 +3697,7 @@
         <v>8</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="7">
@@ -3708,7 +3733,7 @@
         <v>9</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="4">
@@ -3744,7 +3769,7 @@
         <v>8</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="7">
@@ -3780,7 +3805,7 @@
         <v>8</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="4">
@@ -3816,7 +3841,7 @@
         <v>9</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="7">
@@ -3852,7 +3877,7 @@
         <v>17</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="55">
@@ -3889,7 +3914,7 @@
         <v>17</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="7">
@@ -3923,7 +3948,7 @@
       <c r="A65" s="52"/>
       <c r="B65" s="62"/>
       <c r="C65" s="53" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="50">
@@ -3946,7 +3971,7 @@
       </c>
       <c r="O65" s="51"/>
     </row>
-    <row r="66" spans="1:24" ht="23.1" customHeight="1" thickBot="1">
+    <row r="66" spans="1:24" ht="23.15" customHeight="1" thickBot="1">
       <c r="A66" s="31" t="s">
         <v>0</v>
       </c>
@@ -3956,13 +3981,13 @@
       <c r="F66" s="33"/>
       <c r="G66" s="35"/>
     </row>
-    <row r="67" spans="1:24" ht="17.45" customHeight="1">
+    <row r="67" spans="1:24" ht="17.5" customHeight="1">
       <c r="A67" s="9"/>
       <c r="B67" s="64" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="36">
@@ -3992,13 +4017,13 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="17.45" customHeight="1">
+    <row r="68" spans="1:24" ht="17.5" customHeight="1">
       <c r="A68" s="10"/>
       <c r="B68" s="65" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="22">
@@ -4028,13 +4053,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="17.45" customHeight="1">
+    <row r="69" spans="1:24" ht="17.5" customHeight="1">
       <c r="A69" s="9"/>
       <c r="B69" s="64">
         <v>2</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="27">
@@ -4064,13 +4089,13 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="17.45" customHeight="1">
+    <row r="70" spans="1:24" ht="17.5" customHeight="1">
       <c r="A70" s="10"/>
       <c r="B70" s="65" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="22">
@@ -4100,13 +4125,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="17.45" customHeight="1">
+    <row r="71" spans="1:24" ht="17.5" customHeight="1">
       <c r="A71" s="44"/>
       <c r="B71" s="66" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="54" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="55">
@@ -4145,13 +4170,13 @@
       <c r="W71" s="57"/>
       <c r="X71" s="57"/>
     </row>
-    <row r="72" spans="1:24" ht="17.45" customHeight="1" thickBot="1">
+    <row r="72" spans="1:24" ht="17.5" customHeight="1" thickBot="1">
       <c r="A72" s="18"/>
       <c r="B72" s="67" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D72" s="34"/>
       <c r="E72" s="20">
@@ -4226,23 +4251,23 @@
       <c r="X75"/>
     </row>
     <row r="76" spans="1:24" s="13" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B76" s="71" t="s">
+      <c r="B76" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C76" s="71"/>
-      <c r="D76" s="71"/>
-      <c r="E76" s="71"/>
-      <c r="F76" s="71"/>
-      <c r="G76" s="71"/>
-      <c r="H76" s="71"/>
-      <c r="I76" s="71"/>
-      <c r="J76" s="71"/>
-      <c r="K76" s="71"/>
-      <c r="L76" s="71"/>
-      <c r="M76" s="71"/>
-      <c r="N76" s="71"/>
-      <c r="O76" s="71"/>
-      <c r="P76" s="71"/>
+      <c r="C76" s="75"/>
+      <c r="D76" s="75"/>
+      <c r="E76" s="75"/>
+      <c r="F76" s="75"/>
+      <c r="G76" s="75"/>
+      <c r="H76" s="75"/>
+      <c r="I76" s="75"/>
+      <c r="J76" s="75"/>
+      <c r="K76" s="75"/>
+      <c r="L76" s="75"/>
+      <c r="M76" s="75"/>
+      <c r="N76" s="75"/>
+      <c r="O76" s="75"/>
+      <c r="P76" s="75"/>
       <c r="Q76"/>
       <c r="R76"/>
       <c r="S76"/>
@@ -4253,21 +4278,21 @@
       <c r="X76"/>
     </row>
     <row r="77" spans="1:24" s="13" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B77" s="71"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="71"/>
-      <c r="E77" s="71"/>
-      <c r="F77" s="71"/>
-      <c r="G77" s="71"/>
-      <c r="H77" s="71"/>
-      <c r="I77" s="71"/>
-      <c r="J77" s="71"/>
-      <c r="K77" s="71"/>
-      <c r="L77" s="71"/>
-      <c r="M77" s="71"/>
-      <c r="N77" s="71"/>
-      <c r="O77" s="71"/>
-      <c r="P77" s="71"/>
+      <c r="B77" s="75"/>
+      <c r="C77" s="75"/>
+      <c r="D77" s="75"/>
+      <c r="E77" s="75"/>
+      <c r="F77" s="75"/>
+      <c r="G77" s="75"/>
+      <c r="H77" s="75"/>
+      <c r="I77" s="75"/>
+      <c r="J77" s="75"/>
+      <c r="K77" s="75"/>
+      <c r="L77" s="75"/>
+      <c r="M77" s="75"/>
+      <c r="N77" s="75"/>
+      <c r="O77" s="75"/>
+      <c r="P77" s="75"/>
       <c r="Q77"/>
       <c r="R77"/>
       <c r="S77"/>
@@ -4278,21 +4303,21 @@
       <c r="X77"/>
     </row>
     <row r="78" spans="1:24" s="13" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B78" s="71"/>
-      <c r="C78" s="71"/>
-      <c r="D78" s="71"/>
-      <c r="E78" s="71"/>
-      <c r="F78" s="71"/>
-      <c r="G78" s="71"/>
-      <c r="H78" s="71"/>
-      <c r="I78" s="71"/>
-      <c r="J78" s="71"/>
-      <c r="K78" s="71"/>
-      <c r="L78" s="71"/>
-      <c r="M78" s="71"/>
-      <c r="N78" s="71"/>
-      <c r="O78" s="71"/>
-      <c r="P78" s="71"/>
+      <c r="B78" s="75"/>
+      <c r="C78" s="75"/>
+      <c r="D78" s="75"/>
+      <c r="E78" s="75"/>
+      <c r="F78" s="75"/>
+      <c r="G78" s="75"/>
+      <c r="H78" s="75"/>
+      <c r="I78" s="75"/>
+      <c r="J78" s="75"/>
+      <c r="K78" s="75"/>
+      <c r="L78" s="75"/>
+      <c r="M78" s="75"/>
+      <c r="N78" s="75"/>
+      <c r="O78" s="75"/>
+      <c r="P78" s="75"/>
       <c r="Q78"/>
       <c r="R78"/>
       <c r="S78"/>
@@ -4303,21 +4328,21 @@
       <c r="X78"/>
     </row>
     <row r="79" spans="1:24" s="13" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B79" s="71"/>
-      <c r="C79" s="71"/>
-      <c r="D79" s="71"/>
-      <c r="E79" s="71"/>
-      <c r="F79" s="71"/>
-      <c r="G79" s="71"/>
-      <c r="H79" s="71"/>
-      <c r="I79" s="71"/>
-      <c r="J79" s="71"/>
-      <c r="K79" s="71"/>
-      <c r="L79" s="71"/>
-      <c r="M79" s="71"/>
-      <c r="N79" s="71"/>
-      <c r="O79" s="71"/>
-      <c r="P79" s="71"/>
+      <c r="B79" s="75"/>
+      <c r="C79" s="75"/>
+      <c r="D79" s="75"/>
+      <c r="E79" s="75"/>
+      <c r="F79" s="75"/>
+      <c r="G79" s="75"/>
+      <c r="H79" s="75"/>
+      <c r="I79" s="75"/>
+      <c r="J79" s="75"/>
+      <c r="K79" s="75"/>
+      <c r="L79" s="75"/>
+      <c r="M79" s="75"/>
+      <c r="N79" s="75"/>
+      <c r="O79" s="75"/>
+      <c r="P79" s="75"/>
       <c r="Q79"/>
       <c r="R79"/>
       <c r="S79"/>
@@ -4328,21 +4353,21 @@
       <c r="X79"/>
     </row>
     <row r="80" spans="1:24" s="13" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B80" s="71"/>
-      <c r="C80" s="71"/>
-      <c r="D80" s="71"/>
-      <c r="E80" s="71"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="71"/>
-      <c r="H80" s="71"/>
-      <c r="I80" s="71"/>
-      <c r="J80" s="71"/>
-      <c r="K80" s="71"/>
-      <c r="L80" s="71"/>
-      <c r="M80" s="71"/>
-      <c r="N80" s="71"/>
-      <c r="O80" s="71"/>
-      <c r="P80" s="71"/>
+      <c r="B80" s="75"/>
+      <c r="C80" s="75"/>
+      <c r="D80" s="75"/>
+      <c r="E80" s="75"/>
+      <c r="F80" s="75"/>
+      <c r="G80" s="75"/>
+      <c r="H80" s="75"/>
+      <c r="I80" s="75"/>
+      <c r="J80" s="75"/>
+      <c r="K80" s="75"/>
+      <c r="L80" s="75"/>
+      <c r="M80" s="75"/>
+      <c r="N80" s="75"/>
+      <c r="O80" s="75"/>
+      <c r="P80" s="75"/>
       <c r="Q80"/>
       <c r="R80"/>
       <c r="S80"/>
@@ -4393,7 +4418,7 @@
       <c r="W82"/>
       <c r="X82"/>
     </row>
-    <row r="83" spans="1:24" ht="14.25">
+    <row r="83" spans="1:24" ht="14">
       <c r="C83" s="24"/>
     </row>
     <row r="84" spans="1:24">
@@ -4425,14 +4450,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B76:P80"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="E5:O5"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="N6:O6"/>
-    <mergeCell ref="B76:P80"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:C10">
     <cfRule type="cellIs" dxfId="7" priority="89" stopIfTrue="1" operator="equal">
@@ -4475,7 +4500,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B82" r:id="rId1" display="http://timss2019.org/download"/>
+    <hyperlink ref="B82" r:id="rId1" display="http://timss2019.org/download" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15" right="0.15" top="0.15" bottom="0.15" header="0.15" footer="0"/>
